--- a/data/Production_Filled_May.xlsx
+++ b/data/Production_Filled_May.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
+    <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>INCREASE / DECREASE</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>WITH OUT TAW ROLL PROD.</t>
-  </si>
-  <si>
-    <t>MAY TOTAL SALABLE PRODUCTION</t>
   </si>
   <si>
     <t>null</t>
@@ -335,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,14 +367,6 @@
     <font>
       <u/>
       <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -548,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -592,12 +581,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6456,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
@@ -6483,127 +6469,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="R1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="S1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="T1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="V1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="W1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="Y1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AA1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AB1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AC1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AD1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AE1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AF1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AG1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AH1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AI1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" s="36" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="36" t="s">
+      <c r="AK1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="36" t="s">
+      <c r="AL1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="36" t="s">
+      <c r="AM1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="36" t="s">
+      <c r="AN1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AO1" s="37" t="s">
+      <c r="AO1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9199,11 +9185,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9213,230 +9199,242 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>14</v>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45780</v>
+      </c>
+      <c r="B2" s="17">
+        <v>30.396000000000001</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="17">
+        <v>5.375</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2+C2+D2+E2</f>
+        <v>37.058999999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2-C2</f>
+        <v>36.558999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>45780</v>
-      </c>
-      <c r="B3" s="17">
-        <v>30.396000000000001</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5.375</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0.78800000000000003</v>
+        <v>45781</v>
+      </c>
+      <c r="B3" s="2">
+        <v>29.86</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.70199999999999996</v>
       </c>
       <c r="F3" s="2">
-        <f>B3+C3+D3+E3</f>
-        <v>37.058999999999997</v>
+        <f t="shared" ref="F3:F25" si="0">B3+C3+D3+E3</f>
+        <v>37.927999999999997</v>
       </c>
       <c r="G3" s="2">
-        <f>F3-C3</f>
-        <v>36.558999999999997</v>
+        <f t="shared" ref="G3:G25" si="1">F3-C3</f>
+        <v>37.677999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>45781</v>
-      </c>
-      <c r="B4" s="2">
-        <v>29.86</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.1159999999999997</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.70199999999999996</v>
+        <v>45782</v>
+      </c>
+      <c r="B4" s="17">
+        <v>32.207999999999998</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="17">
+        <v>7.1150000000000002</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.68600000000000005</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F26" si="0">B4+C4+D4+E4</f>
-        <v>37.927999999999997</v>
+        <f t="shared" si="0"/>
+        <v>40.134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G26" si="1">F4-C4</f>
-        <v>37.677999999999997</v>
+        <f t="shared" si="1"/>
+        <v>40.009</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>45782</v>
-      </c>
-      <c r="B5" s="17">
-        <v>32.207999999999998</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.125</v>
-      </c>
-      <c r="D5" s="17">
-        <v>7.1150000000000002</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.68600000000000005</v>
+        <v>45783</v>
+      </c>
+      <c r="B5" s="2">
+        <v>32.314</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.17</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.63300000000000001</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>40.134</v>
+        <v>40.817000000000007</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>40.009</v>
+        <v>40.117000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>45783</v>
-      </c>
-      <c r="B6" s="2">
-        <v>32.314</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.17</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0.63300000000000001</v>
+        <v>45784</v>
+      </c>
+      <c r="B6" s="17">
+        <v>32.478999999999999</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D6" s="17">
+        <v>7.7450000000000001</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.79500000000000004</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>40.817000000000007</v>
+        <v>41.556999999999995</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>40.117000000000004</v>
+        <v>41.018999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>45784</v>
-      </c>
-      <c r="B7" s="17">
-        <v>32.478999999999999</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D7" s="17">
-        <v>7.7450000000000001</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.79500000000000004</v>
+        <v>45785</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32.268999999999998</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.1449999999999996</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1.006</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>41.556999999999995</v>
+        <v>41.045000000000002</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>41.018999999999998</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>45785</v>
-      </c>
-      <c r="B8" s="2">
-        <v>32.268999999999998</v>
-      </c>
-      <c r="C8" s="26">
+        <v>45787</v>
+      </c>
+      <c r="B8" s="17">
+        <v>30.957000000000001</v>
+      </c>
+      <c r="C8" s="14">
         <v>0.625</v>
       </c>
-      <c r="D8" s="2">
-        <v>7.1449999999999996</v>
-      </c>
-      <c r="E8" s="27">
-        <v>1.006</v>
+      <c r="D8" s="17">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.76800000000000002</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>41.045000000000002</v>
+        <v>39.954999999999998</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>40.42</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>45787</v>
-      </c>
-      <c r="B9" s="17">
-        <v>30.957000000000001</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="D9" s="17">
-        <v>7.6050000000000004</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0.76800000000000002</v>
+        <v>45788</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>39.954999999999998</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>39.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>45788</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>16</v>
+        <v>45789</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -9447,430 +9445,416 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>45789</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>16</v>
+        <v>45790</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31.54</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>39.907000000000004</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>39.179000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>45790</v>
-      </c>
-      <c r="B12" s="2">
-        <v>31.54</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6.8460000000000001</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0.79300000000000004</v>
+        <v>45791</v>
+      </c>
+      <c r="B12" s="17">
+        <v>32.155000000000001</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D12" s="17">
+        <v>7.13</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.79900000000000004</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>39.907000000000004</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>39.179000000000002</v>
+        <v>40.084000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>45791</v>
-      </c>
-      <c r="B13" s="17">
-        <v>32.155000000000001</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D13" s="17">
+        <v>45792</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31.195</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D13" s="2">
         <v>7.13</v>
       </c>
-      <c r="E13" s="25">
-        <v>0.79900000000000004</v>
+      <c r="E13" s="27">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>40.700000000000003</v>
+        <v>39.411999999999999</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>40.084000000000003</v>
+        <v>39.118000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45792</v>
-      </c>
-      <c r="B14" s="2">
-        <v>31.195</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>7.13</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0.79300000000000004</v>
+        <v>45794</v>
+      </c>
+      <c r="B14" s="17">
+        <v>30.937000000000001</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.78800000000000003</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>39.411999999999999</v>
+        <v>38.143999999999998</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>39.118000000000002</v>
+        <v>37.415999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45794</v>
-      </c>
-      <c r="B15" s="17">
-        <v>30.937000000000001</v>
-      </c>
-      <c r="C15" s="14">
+        <v>45795</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32.268000000000001</v>
+      </c>
+      <c r="C15" s="26">
         <v>0.72799999999999998</v>
       </c>
-      <c r="D15" s="17">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.78800000000000003</v>
+      <c r="D15" s="2">
+        <v>5.9050000000000002</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.88500000000000001</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>38.143999999999998</v>
+        <v>39.786000000000001</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>37.415999999999997</v>
+        <v>39.058</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45795</v>
-      </c>
-      <c r="B16" s="2">
-        <v>32.268000000000001</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.9050000000000002</v>
-      </c>
-      <c r="E16" s="27">
-        <v>0.88500000000000001</v>
+        <v>45796</v>
+      </c>
+      <c r="B16" s="17">
+        <v>32.418999999999997</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1.008</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5.23</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>39.786000000000001</v>
+        <v>39.449999999999996</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>39.058</v>
+        <v>38.441999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45796</v>
-      </c>
-      <c r="B17" s="17">
-        <v>32.418999999999997</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1.008</v>
-      </c>
-      <c r="D17" s="17">
-        <v>5.23</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.79300000000000004</v>
+        <v>45797</v>
+      </c>
+      <c r="B17" s="2">
+        <v>32.539000000000001</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>39.449999999999996</v>
+        <v>38.865000000000002</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>38.441999999999993</v>
+        <v>37.885000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45797</v>
-      </c>
-      <c r="B18" s="2">
-        <v>32.539000000000001</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.98</v>
+        <v>45798</v>
+      </c>
+      <c r="B18" s="17">
+        <v>28.221</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.89600000000000002</v>
       </c>
       <c r="D18" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0.77600000000000002</v>
+        <v>4.83</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.77</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>38.865000000000002</v>
+        <v>34.717000000000006</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>37.885000000000005</v>
+        <v>33.821000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45798</v>
-      </c>
-      <c r="B19" s="17">
-        <v>28.221</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.89600000000000002</v>
+        <v>45799</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.033000000000001</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.95199999999999996</v>
       </c>
       <c r="D19" s="2">
-        <v>4.83</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.77</v>
+        <v>4.3</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0.78400000000000003</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>34.717000000000006</v>
+        <v>39.068999999999996</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>33.821000000000005</v>
+        <v>38.116999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45799</v>
-      </c>
-      <c r="B20" s="2">
-        <v>33.033000000000001</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0.78400000000000003</v>
+        <v>45801</v>
+      </c>
+      <c r="B20" s="17">
+        <v>30.844000000000001</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3.56</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.7</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>39.068999999999996</v>
+        <v>35.804000000000002</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>38.116999999999997</v>
+        <v>35.103999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45801</v>
-      </c>
-      <c r="B21" s="17">
-        <v>30.844000000000001</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="D21" s="17">
-        <v>3.56</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.7</v>
+        <v>45802</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30.11</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0.78300000000000003</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>35.804000000000002</v>
+        <v>37.375</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>35.103999999999999</v>
+        <v>35.792999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45802</v>
-      </c>
-      <c r="B22" s="2">
-        <v>30.11</v>
-      </c>
-      <c r="C22" s="26">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0.78300000000000003</v>
+        <v>45803</v>
+      </c>
+      <c r="B22" s="6">
+        <v>31.411000000000001</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.8</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>37.375</v>
+        <v>38.216999999999999</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>35.792999999999999</v>
-      </c>
+        <v>36.579000000000001</v>
+      </c>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45803</v>
-      </c>
-      <c r="B23" s="6">
-        <v>31.411000000000001</v>
-      </c>
-      <c r="C23" s="28">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="D23" s="6">
-        <v>4.3680000000000003</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0.8</v>
+        <v>45804</v>
+      </c>
+      <c r="B23" s="2">
+        <v>32.585999999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.78200000000000003</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>38.216999999999999</v>
+        <v>38.927999999999997</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>36.579000000000001</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>37.485999999999997</v>
+      </c>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B24" s="2">
-        <v>32.585999999999999</v>
+        <v>32.363</v>
       </c>
       <c r="C24" s="2">
-        <v>1.4419999999999999</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>4.1180000000000003</v>
+        <v>4.6630000000000003</v>
       </c>
       <c r="E24" s="2">
-        <v>0.78200000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>38.927999999999997</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>37.485999999999997</v>
-      </c>
-      <c r="K24" s="5"/>
+        <v>37.809999999999995</v>
+      </c>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B25" s="2">
-        <v>32.363</v>
+        <v>32.468000000000004</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>4.6630000000000003</v>
+        <v>5.0960000000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>0.78400000000000003</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>37.809999999999995</v>
+        <v>38.557000000000009</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>37.809999999999995</v>
+        <v>38.557000000000009</v>
       </c>
       <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>45806</v>
-      </c>
-      <c r="B26" s="2">
-        <v>32.468000000000004</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5.0960000000000001</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.99299999999999999</v>
+        <v>45808</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>38.557000000000009</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>38.557000000000009</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>45808</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -9878,28 +9862,16 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="30" t="s">
+      <c r="F28" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="31">
-        <f>SUM(G3:G27)</f>
+      <c r="G28" s="31">
+        <f>SUM(G2:G26)</f>
         <v>839.58100000000002</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9909,9 +9881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:Z84"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10002,7 +9974,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>34.177999999999997</v>
@@ -10076,7 +10048,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>2.5190000000000001</v>
@@ -10151,7 +10123,7 @@
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <f>B2+B3</f>
@@ -10256,14 +10228,14 @@
     </row>
     <row r="8" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>132</v>
@@ -10337,7 +10309,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>2.7</v>
@@ -10411,7 +10383,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>1.5</v>
@@ -10485,7 +10457,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>0.65500000000000003</v>
@@ -10559,7 +10531,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>14.615</v>
@@ -10633,7 +10605,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>4.5250000000000004</v>
@@ -10707,7 +10679,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>12.66</v>
@@ -10781,7 +10753,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -10855,7 +10827,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>1.55</v>
@@ -10929,7 +10901,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -11003,7 +10975,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -11077,7 +11049,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>0.98</v>
@@ -11285,7 +11257,7 @@
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" ref="B25:Z25" si="3">B6-B23</f>
@@ -11389,15 +11361,15 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>0.78800000000000003</v>
@@ -11474,7 +11446,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" ref="B30:Z30" si="4">SUM(B28:B29)</f>
@@ -11578,15 +11550,15 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>3.2480000000000002</v>
@@ -11660,7 +11632,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>23.53</v>
@@ -11734,7 +11706,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>3.11</v>
@@ -11808,7 +11780,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>0.317</v>
@@ -11882,7 +11854,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>0.191</v>
@@ -11957,7 +11929,7 @@
     <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3">
         <f>SUM(B32:B38)</f>
@@ -12063,7 +12035,7 @@
     <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="3">
         <f t="shared" ref="B42:Z42" si="6">B23-B30-B40</f>
@@ -12170,11 +12142,11 @@
       <c r="C43" s="18"/>
     </row>
     <row r="45" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="10"/>
@@ -12201,7 +12173,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2">
         <v>1.5</v>
@@ -12275,7 +12247,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2">
         <v>8.25</v>
@@ -12349,7 +12321,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2">
         <v>0.24</v>
@@ -12423,7 +12395,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2">
         <v>15</v>
@@ -12497,7 +12469,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2">
         <v>8</v>
@@ -12571,7 +12543,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2">
         <v>81.521000000000001</v>
@@ -12645,7 +12617,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -12719,7 +12691,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2">
         <v>0.85</v>
@@ -12765,7 +12737,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -12839,7 +12811,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -12913,7 +12885,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -12987,7 +12959,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="2">
         <v>9.6</v>
@@ -12996,7 +12968,7 @@
         <v>9.6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="2">
         <v>8.6</v>
@@ -13039,7 +13011,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2">
         <v>1.5</v>
@@ -13113,7 +13085,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -13348,7 +13320,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="2">
@@ -13505,11 +13477,11 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
+      <c r="A66" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -13536,7 +13508,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="2">
         <v>7.5750000000000002</v>
@@ -13610,7 +13582,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -13684,7 +13656,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="2">
         <v>18</v>
@@ -13758,7 +13730,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -13832,7 +13804,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="2">
         <v>10.02</v>
@@ -13906,7 +13878,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -13980,7 +13952,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2">
         <v>0.42</v>
@@ -14054,7 +14026,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -14128,7 +14100,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2">
         <v>0.06</v>
@@ -14202,7 +14174,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" s="2">
         <v>0.78</v>
@@ -14437,7 +14409,7 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2">
@@ -14567,7 +14539,7 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" ref="B82:Z82" si="11">+B62+B79</f>
@@ -14699,7 +14671,7 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2">

--- a/data/Production_Filled_May.xlsx
+++ b/data/Production_Filled_May.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
     <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
+    <sheet name="Spinning_Prod" sheetId="4" r:id="rId4"/>
+    <sheet name="Twisting_Prod" sheetId="5" r:id="rId5"/>
+    <sheet name="Weaving_Prod" sheetId="6" r:id="rId6"/>
+    <sheet name="Spool_Winding_Stock" sheetId="7" r:id="rId7"/>
+    <sheet name="Cop_Winding_Stock" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>INCREASE / DECREASE</t>
   </si>
@@ -332,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +372,29 @@
     <font>
       <u/>
       <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -537,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -590,6 +618,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9881,9 +9917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:Z76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9896,6 +9932,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="16">
         <v>45780</v>
       </c>
@@ -11361,11 +11400,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -11550,11 +11589,11 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -12142,11 +12181,11 @@
       <c r="C43" s="18"/>
     </row>
     <row r="45" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="10"/>
@@ -13477,11 +13516,11 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -14779,6 +14818,3609 @@
     <mergeCell ref="A66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="26" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="38" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="39">
+        <v>45780</v>
+      </c>
+      <c r="C1" s="39">
+        <v>45781</v>
+      </c>
+      <c r="D1" s="39">
+        <v>45782</v>
+      </c>
+      <c r="E1" s="39">
+        <v>45783</v>
+      </c>
+      <c r="F1" s="39">
+        <v>45784</v>
+      </c>
+      <c r="G1" s="39">
+        <v>45785</v>
+      </c>
+      <c r="H1" s="39">
+        <v>45787</v>
+      </c>
+      <c r="I1" s="39">
+        <v>45788</v>
+      </c>
+      <c r="J1" s="39">
+        <v>45789</v>
+      </c>
+      <c r="K1" s="39">
+        <v>45790</v>
+      </c>
+      <c r="L1" s="39">
+        <v>45791</v>
+      </c>
+      <c r="M1" s="39">
+        <v>45792</v>
+      </c>
+      <c r="N1" s="39">
+        <v>45794</v>
+      </c>
+      <c r="O1" s="39">
+        <v>45795</v>
+      </c>
+      <c r="P1" s="39">
+        <v>45796</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>45797</v>
+      </c>
+      <c r="R1" s="39">
+        <v>45798</v>
+      </c>
+      <c r="S1" s="39">
+        <v>45799</v>
+      </c>
+      <c r="T1" s="39">
+        <v>45801</v>
+      </c>
+      <c r="U1" s="39">
+        <v>45802</v>
+      </c>
+      <c r="V1" s="39">
+        <v>45803</v>
+      </c>
+      <c r="W1" s="39">
+        <v>45804</v>
+      </c>
+      <c r="X1" s="39">
+        <v>45805</v>
+      </c>
+      <c r="Y1" s="39">
+        <v>45806</v>
+      </c>
+      <c r="Z1" s="39">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9">
+        <v>132</v>
+      </c>
+      <c r="C2" s="9">
+        <v>134</v>
+      </c>
+      <c r="D2" s="9">
+        <v>134</v>
+      </c>
+      <c r="E2" s="9">
+        <v>133</v>
+      </c>
+      <c r="F2" s="9">
+        <v>134</v>
+      </c>
+      <c r="G2" s="9">
+        <v>134</v>
+      </c>
+      <c r="H2" s="9">
+        <v>132</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>133</v>
+      </c>
+      <c r="L2" s="3">
+        <v>133</v>
+      </c>
+      <c r="M2" s="20">
+        <v>134</v>
+      </c>
+      <c r="N2" s="9">
+        <v>126</v>
+      </c>
+      <c r="O2" s="9">
+        <v>127</v>
+      </c>
+      <c r="P2" s="9">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>133</v>
+      </c>
+      <c r="R2" s="9">
+        <v>127.5</v>
+      </c>
+      <c r="S2" s="9">
+        <v>136</v>
+      </c>
+      <c r="T2" s="9">
+        <v>131</v>
+      </c>
+      <c r="U2" s="9">
+        <v>134.5</v>
+      </c>
+      <c r="V2" s="9">
+        <v>134</v>
+      </c>
+      <c r="W2" s="9">
+        <v>134</v>
+      </c>
+      <c r="X2" s="9">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>134.5</v>
+      </c>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.806</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="L3" s="9">
+        <v>3.6179999999999999</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.627</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14.615</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14.542</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14.798</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14.215</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.246</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14.76</v>
+      </c>
+      <c r="H6" s="2">
+        <v>14.35</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>16.18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>15.125999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15.01</v>
+      </c>
+      <c r="N6" s="2">
+        <v>16.375</v>
+      </c>
+      <c r="O6" s="2">
+        <v>16.696999999999999</v>
+      </c>
+      <c r="P6" s="2">
+        <v>17.853999999999999</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>18.097999999999999</v>
+      </c>
+      <c r="R6" s="2">
+        <v>17.488</v>
+      </c>
+      <c r="S6" s="2">
+        <v>18.12</v>
+      </c>
+      <c r="T6" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="U6" s="2">
+        <v>18.72</v>
+      </c>
+      <c r="V6" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W6" s="2">
+        <v>17.881</v>
+      </c>
+      <c r="X6" s="2">
+        <v>17.257999999999999</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>17.574000000000002</v>
+      </c>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.835</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>3.976</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1.978</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1.968</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1.946</v>
+      </c>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12.66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.891</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12.212999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12.265000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12.18</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12.247</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>10.81</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12.24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12.49</v>
+      </c>
+      <c r="N8" s="2">
+        <v>12.295999999999999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="P8" s="2">
+        <v>12.89</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="R8" s="2">
+        <v>12.837999999999999</v>
+      </c>
+      <c r="S8" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>13.295999999999999</v>
+      </c>
+      <c r="U8" s="2">
+        <v>12.538</v>
+      </c>
+      <c r="V8" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="W8" s="2">
+        <v>13.375</v>
+      </c>
+      <c r="X8" s="2">
+        <v>13.475</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>13.58</v>
+      </c>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.048</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="W12" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="Z13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="26" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="39">
+        <v>45780</v>
+      </c>
+      <c r="C1" s="39">
+        <v>45781</v>
+      </c>
+      <c r="D1" s="39">
+        <v>45782</v>
+      </c>
+      <c r="E1" s="39">
+        <v>45783</v>
+      </c>
+      <c r="F1" s="39">
+        <v>45784</v>
+      </c>
+      <c r="G1" s="39">
+        <v>45785</v>
+      </c>
+      <c r="H1" s="39">
+        <v>45787</v>
+      </c>
+      <c r="I1" s="39">
+        <v>45788</v>
+      </c>
+      <c r="J1" s="39">
+        <v>45789</v>
+      </c>
+      <c r="K1" s="39">
+        <v>45790</v>
+      </c>
+      <c r="L1" s="39">
+        <v>45791</v>
+      </c>
+      <c r="M1" s="39">
+        <v>45792</v>
+      </c>
+      <c r="N1" s="39">
+        <v>45794</v>
+      </c>
+      <c r="O1" s="39">
+        <v>45795</v>
+      </c>
+      <c r="P1" s="39">
+        <v>45796</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>45797</v>
+      </c>
+      <c r="R1" s="39">
+        <v>45798</v>
+      </c>
+      <c r="S1" s="39">
+        <v>45799</v>
+      </c>
+      <c r="T1" s="39">
+        <v>45801</v>
+      </c>
+      <c r="U1" s="39">
+        <v>45802</v>
+      </c>
+      <c r="V1" s="39">
+        <v>45803</v>
+      </c>
+      <c r="W1" s="39">
+        <v>45804</v>
+      </c>
+      <c r="X1" s="39">
+        <v>45805</v>
+      </c>
+      <c r="Y1" s="39">
+        <v>45806</v>
+      </c>
+      <c r="Z1" s="39">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.006</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="26" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="39">
+        <v>45780</v>
+      </c>
+      <c r="C1" s="39">
+        <v>45781</v>
+      </c>
+      <c r="D1" s="39">
+        <v>45782</v>
+      </c>
+      <c r="E1" s="39">
+        <v>45783</v>
+      </c>
+      <c r="F1" s="39">
+        <v>45784</v>
+      </c>
+      <c r="G1" s="39">
+        <v>45785</v>
+      </c>
+      <c r="H1" s="39">
+        <v>45787</v>
+      </c>
+      <c r="I1" s="39">
+        <v>45788</v>
+      </c>
+      <c r="J1" s="39">
+        <v>45789</v>
+      </c>
+      <c r="K1" s="39">
+        <v>45790</v>
+      </c>
+      <c r="L1" s="39">
+        <v>45791</v>
+      </c>
+      <c r="M1" s="39">
+        <v>45792</v>
+      </c>
+      <c r="N1" s="39">
+        <v>45794</v>
+      </c>
+      <c r="O1" s="39">
+        <v>45795</v>
+      </c>
+      <c r="P1" s="39">
+        <v>45796</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>45797</v>
+      </c>
+      <c r="R1" s="39">
+        <v>45798</v>
+      </c>
+      <c r="S1" s="39">
+        <v>45799</v>
+      </c>
+      <c r="T1" s="39">
+        <v>45801</v>
+      </c>
+      <c r="U1" s="39">
+        <v>45802</v>
+      </c>
+      <c r="V1" s="39">
+        <v>45803</v>
+      </c>
+      <c r="W1" s="39">
+        <v>45804</v>
+      </c>
+      <c r="X1" s="39">
+        <v>45805</v>
+      </c>
+      <c r="Y1" s="39">
+        <v>45806</v>
+      </c>
+      <c r="Z1" s="39">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.468</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1.931</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2.375</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="W2" s="2">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23.53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.792999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25.863</v>
+      </c>
+      <c r="E3" s="2">
+        <v>26.06</v>
+      </c>
+      <c r="F3" s="2">
+        <v>26.276</v>
+      </c>
+      <c r="G3" s="2">
+        <v>26.526</v>
+      </c>
+      <c r="H3" s="2">
+        <v>25.126000000000001</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>25.945</v>
+      </c>
+      <c r="L3" s="2">
+        <v>25.86</v>
+      </c>
+      <c r="M3" s="2">
+        <v>26.056000000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>25.542000000000002</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26.925999999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>26.620999999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>26.646000000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>21.841999999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>26.94</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.811</v>
+      </c>
+      <c r="U3" s="2">
+        <v>26.033000000000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>35.618000000000002</v>
+      </c>
+      <c r="W3" s="2">
+        <v>27.198</v>
+      </c>
+      <c r="X3" s="2">
+        <v>27.048999999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>27.222999999999999</v>
+      </c>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="W4" s="2">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="X4" s="2">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.316</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.307</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Z6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:Y13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="26" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="39">
+        <v>45780</v>
+      </c>
+      <c r="C1" s="39">
+        <v>45781</v>
+      </c>
+      <c r="D1" s="39">
+        <v>45782</v>
+      </c>
+      <c r="E1" s="39">
+        <v>45783</v>
+      </c>
+      <c r="F1" s="39">
+        <v>45784</v>
+      </c>
+      <c r="G1" s="39">
+        <v>45785</v>
+      </c>
+      <c r="H1" s="39">
+        <v>45787</v>
+      </c>
+      <c r="I1" s="39">
+        <v>45788</v>
+      </c>
+      <c r="J1" s="39">
+        <v>45789</v>
+      </c>
+      <c r="K1" s="39">
+        <v>45790</v>
+      </c>
+      <c r="L1" s="39">
+        <v>45791</v>
+      </c>
+      <c r="M1" s="39">
+        <v>45792</v>
+      </c>
+      <c r="N1" s="39">
+        <v>45794</v>
+      </c>
+      <c r="O1" s="39">
+        <v>45795</v>
+      </c>
+      <c r="P1" s="39">
+        <v>45796</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>45797</v>
+      </c>
+      <c r="R1" s="39">
+        <v>45798</v>
+      </c>
+      <c r="S1" s="39">
+        <v>45799</v>
+      </c>
+      <c r="T1" s="39">
+        <v>45801</v>
+      </c>
+      <c r="U1" s="39">
+        <v>45802</v>
+      </c>
+      <c r="V1" s="39">
+        <v>45803</v>
+      </c>
+      <c r="W1" s="39">
+        <v>45804</v>
+      </c>
+      <c r="X1" s="39">
+        <v>45805</v>
+      </c>
+      <c r="Y1" s="39">
+        <v>45806</v>
+      </c>
+      <c r="Z1" s="39">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="O3" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="P3" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>13</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="T3" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="U3" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="V3" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="W3" s="2">
+        <v>12</v>
+      </c>
+      <c r="X3" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10</v>
+      </c>
+      <c r="R5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2">
+        <v>13.25</v>
+      </c>
+      <c r="U5" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V5" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="W5" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="X5" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8</v>
+      </c>
+      <c r="R6" s="2">
+        <v>8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>8</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8</v>
+      </c>
+      <c r="V6" s="2">
+        <v>8</v>
+      </c>
+      <c r="W6" s="2">
+        <v>8</v>
+      </c>
+      <c r="X6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2">
+        <v>81.521000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>86.355999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>91.210999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96.040999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100.886</v>
+      </c>
+      <c r="G7" s="2">
+        <v>105.741</v>
+      </c>
+      <c r="H7" s="2">
+        <v>110.584</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>124.30500000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>128.19499999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>120.733</v>
+      </c>
+      <c r="N7" s="2">
+        <v>123.989</v>
+      </c>
+      <c r="O7" s="2">
+        <v>126.944</v>
+      </c>
+      <c r="P7" s="2">
+        <v>128.91399999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>130.84399999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>132.79400000000001</v>
+      </c>
+      <c r="S7" s="2">
+        <v>134.70400000000001</v>
+      </c>
+      <c r="T7" s="2">
+        <v>136.66399999999999</v>
+      </c>
+      <c r="U7" s="2">
+        <v>138.63399999999999</v>
+      </c>
+      <c r="V7" s="2">
+        <v>140.61199999999999</v>
+      </c>
+      <c r="W7" s="2">
+        <v>142.762</v>
+      </c>
+      <c r="X7" s="2">
+        <v>145.452</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>147.398</v>
+      </c>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.391</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.7309999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10.631</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12.891</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15.686</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>25.026</v>
+      </c>
+      <c r="L10" s="2">
+        <v>28.265999999999998</v>
+      </c>
+      <c r="M10" s="2">
+        <v>31.565999999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>31.565999999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>36.951000000000001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>40.210999999999999</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>42.850999999999999</v>
+      </c>
+      <c r="R10" s="2">
+        <v>45.731000000000002</v>
+      </c>
+      <c r="S10" s="2">
+        <v>48.121000000000002</v>
+      </c>
+      <c r="T10" s="2">
+        <v>49.720999999999997</v>
+      </c>
+      <c r="U10" s="2">
+        <v>43.170999999999999</v>
+      </c>
+      <c r="V10" s="2">
+        <v>45.561</v>
+      </c>
+      <c r="W10" s="2">
+        <v>47.529000000000003</v>
+      </c>
+      <c r="X10" s="2">
+        <v>49.502000000000002</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>52.652000000000001</v>
+      </c>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="X12" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="W14" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>2</v>
+      </c>
+      <c r="W15" s="2">
+        <v>2</v>
+      </c>
+      <c r="X15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="26" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="39">
+        <v>45780</v>
+      </c>
+      <c r="C1" s="39">
+        <v>45781</v>
+      </c>
+      <c r="D1" s="39">
+        <v>45782</v>
+      </c>
+      <c r="E1" s="39">
+        <v>45783</v>
+      </c>
+      <c r="F1" s="39">
+        <v>45784</v>
+      </c>
+      <c r="G1" s="39">
+        <v>45785</v>
+      </c>
+      <c r="H1" s="39">
+        <v>45787</v>
+      </c>
+      <c r="I1" s="39">
+        <v>45788</v>
+      </c>
+      <c r="J1" s="39">
+        <v>45789</v>
+      </c>
+      <c r="K1" s="39">
+        <v>45790</v>
+      </c>
+      <c r="L1" s="39">
+        <v>45791</v>
+      </c>
+      <c r="M1" s="39">
+        <v>45792</v>
+      </c>
+      <c r="N1" s="39">
+        <v>45794</v>
+      </c>
+      <c r="O1" s="39">
+        <v>45795</v>
+      </c>
+      <c r="P1" s="39">
+        <v>45796</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>45797</v>
+      </c>
+      <c r="R1" s="39">
+        <v>45798</v>
+      </c>
+      <c r="S1" s="39">
+        <v>45799</v>
+      </c>
+      <c r="T1" s="39">
+        <v>45801</v>
+      </c>
+      <c r="U1" s="39">
+        <v>45802</v>
+      </c>
+      <c r="V1" s="39">
+        <v>45803</v>
+      </c>
+      <c r="W1" s="39">
+        <v>45804</v>
+      </c>
+      <c r="X1" s="39">
+        <v>45805</v>
+      </c>
+      <c r="Y1" s="39">
+        <v>45806</v>
+      </c>
+      <c r="Z1" s="39">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.875</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="L2" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="M2" s="2">
+        <v>8.94</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11.85</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>10.035</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="T4" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="U4" s="2">
+        <v>4.125</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="X4" s="2">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="S6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="T6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="U6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="V6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="W6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="X6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.085</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1.335</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1.335</v>
+      </c>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="Z11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>